--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,9 +24,9 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="230">
   <si>
     <t>PERIOD</t>
   </si>
@@ -697,19 +702,49 @@
   </si>
   <si>
     <t>GRAD. 8/17</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>9/1,2/2022</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>10/24, 11/4,16, 12/2,28/2022</t>
+  </si>
+  <si>
+    <t>12/9,12/2022</t>
+  </si>
+  <si>
+    <t>12/27,29/2022</t>
+  </si>
+  <si>
+    <t>1/25,26/2023</t>
+  </si>
+  <si>
+    <t>2/7,8/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +778,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -933,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,6 +1162,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,7 +1196,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1165,7 +1213,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1180,7 +1228,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1222,7 +1270,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1282,7 +1330,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1295,7 +1343,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1310,7 +1358,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1328,7 +1376,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1345,7 +1393,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1364,7 +1412,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1381,7 +1429,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1397,7 +1445,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1414,7 +1462,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1433,7 +1481,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1450,7 +1498,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1466,7 +1514,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1523,7 +1571,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1568,7 +1616,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1659,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1675,7 +1723,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1783,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1849,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1912,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +2010,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2069,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2134,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,7 +2177,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2252,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2438,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2504,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2562,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2628,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2684,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2759,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2802,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2868,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2924,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +3022,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3037,7 +3085,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3134,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3103,14 +3151,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K346" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K364" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
     <tableColumn id="3" name="EARNED" dataDxfId="18"/>
     <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
     <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
     <tableColumn id="7" name="EARNED " dataDxfId="14">
@@ -3118,7 +3166,7 @@
     </tableColumn>
     <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
     <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
     <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
@@ -3452,14 +3500,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3469,7 +3517,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3477,34 +3525,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K346"/>
+  <dimension ref="A2:K364"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1572" topLeftCell="A334" activePane="bottomLeft"/>
+      <pane ySplit="1575" topLeftCell="A328" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D339" sqref="D339"/>
+      <selection pane="bottomLeft" activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3525,7 +3573,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3543,7 +3591,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3561,7 +3609,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3569,7 +3617,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3582,7 +3630,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3599,7 +3647,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3634,7 +3682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3642,8 +3690,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>123.41099999999994</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>127.16099999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3652,13 +3700,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.25</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>41</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3680,7 +3728,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3700,7 +3748,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3720,7 +3768,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3741,7 +3789,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3762,7 +3810,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3783,7 +3831,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3804,7 +3852,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3825,7 +3873,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3846,7 +3894,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3867,7 +3915,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -3888,7 +3936,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -3915,7 +3963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -3933,7 +3981,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -3953,7 +4001,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -3978,7 +4026,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4005,7 +4053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4026,7 +4074,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4047,7 +4095,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4068,7 +4116,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4095,7 +4143,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4120,7 +4168,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4149,7 +4197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4169,7 +4217,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4196,7 +4244,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4218,7 +4266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4245,7 +4293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4272,7 +4320,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4290,7 +4338,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4316,7 +4364,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4337,7 +4385,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4364,7 +4412,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4391,7 +4439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4411,7 +4459,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4433,7 +4481,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4460,7 +4508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4487,7 +4535,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4508,7 +4556,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4529,7 +4577,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4556,7 +4604,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4578,7 +4626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4605,7 +4653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4626,7 +4674,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4647,7 +4695,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4665,7 +4713,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4685,7 +4733,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4706,7 +4754,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4733,7 +4781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4760,7 +4808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4781,7 +4829,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4808,7 +4856,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4829,7 +4877,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4856,7 +4904,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -4876,7 +4924,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -4901,7 +4949,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -4926,7 +4974,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -4951,7 +4999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -4970,7 +5018,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -4987,7 +5035,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5012,7 +5060,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5030,7 +5078,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5058,7 +5106,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5077,7 +5125,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5102,7 +5150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5131,7 +5179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5150,7 +5198,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5167,7 +5215,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5192,7 +5240,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5212,7 +5260,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5239,7 +5287,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5260,7 +5308,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5287,7 +5335,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5314,7 +5362,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5333,7 +5381,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5360,7 +5408,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5381,7 +5429,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5402,7 +5450,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5429,7 +5477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5451,7 +5499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5469,7 +5517,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5489,7 +5537,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5514,7 +5562,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5535,7 +5583,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5556,7 +5604,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5577,7 +5625,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5598,7 +5646,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5619,7 +5667,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5640,7 +5688,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5661,7 +5709,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5682,7 +5730,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5703,7 +5751,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5728,7 +5776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5748,7 +5796,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5766,7 +5814,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5786,7 +5834,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5807,7 +5855,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5828,7 +5876,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5849,7 +5897,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5870,7 +5918,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -5891,7 +5939,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -5912,7 +5960,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -5933,7 +5981,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -5954,7 +6002,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -5975,7 +6023,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6002,7 +6050,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6020,7 +6068,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6041,7 +6089,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6059,7 +6107,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6079,7 +6127,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6100,7 +6148,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6121,7 +6169,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6146,7 +6194,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6166,7 +6214,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6193,7 +6241,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6208,7 +6256,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6223,7 +6271,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6238,7 +6286,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6263,7 +6311,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6283,7 +6331,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6308,7 +6356,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6335,7 +6383,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6355,7 +6403,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6380,7 +6428,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6401,7 +6449,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6426,7 +6474,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6451,7 +6499,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6469,7 +6517,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6493,7 +6541,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6513,7 +6561,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6534,7 +6582,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6555,7 +6603,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6582,7 +6630,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6602,7 +6650,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6627,7 +6675,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6652,7 +6700,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6677,7 +6725,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6702,7 +6750,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6729,7 +6777,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6749,7 +6797,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6776,7 +6824,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6796,7 +6844,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6821,7 +6869,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6848,7 +6896,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -6868,7 +6916,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -6886,7 +6934,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -6910,7 +6958,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -6930,7 +6978,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -6955,7 +7003,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -6978,7 +7026,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -6993,7 +7041,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7008,7 +7056,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7025,7 +7073,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7048,7 +7096,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7068,7 +7116,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7093,7 +7141,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7110,7 +7158,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7127,7 +7175,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7152,7 +7200,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7179,7 +7227,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7199,7 +7247,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7224,7 +7272,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7247,7 +7295,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7267,7 +7315,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7294,7 +7342,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7314,7 +7362,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7335,7 +7383,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7360,7 +7408,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7380,7 +7428,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7398,7 +7446,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7422,7 +7470,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7439,7 +7487,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7464,7 +7512,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7489,7 +7537,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7508,7 +7556,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7533,7 +7581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7550,7 +7598,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7567,7 +7615,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7592,7 +7640,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7617,7 +7665,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7642,7 +7690,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7667,7 +7715,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7694,7 +7742,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7713,7 +7761,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7732,7 +7780,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7751,7 +7799,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7768,7 +7816,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7789,7 +7837,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7814,7 +7862,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7839,7 +7887,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7857,7 +7905,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -7877,7 +7925,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -7902,7 +7950,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -7922,7 +7970,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -7949,7 +7997,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -7964,7 +8012,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -7985,7 +8033,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8006,7 +8054,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8033,7 +8081,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8055,7 +8103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8076,7 +8124,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8097,7 +8145,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8122,7 +8170,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8149,7 +8197,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8171,7 +8219,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8192,7 +8240,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8213,7 +8261,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8231,7 +8279,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8251,7 +8299,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8278,7 +8326,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8303,7 +8351,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8323,7 +8371,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8344,7 +8392,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8365,7 +8413,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8386,7 +8434,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8407,7 +8455,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8428,7 +8476,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8449,7 +8497,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8476,7 +8524,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8498,7 +8546,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8525,7 +8573,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8547,7 +8595,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8568,7 +8616,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8586,7 +8634,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8606,7 +8654,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8633,7 +8681,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8660,7 +8708,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8681,7 +8729,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8706,7 +8754,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8727,7 +8775,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8748,7 +8796,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8769,7 +8817,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8790,7 +8838,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8817,7 +8865,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8838,7 +8886,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8859,7 +8907,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -8877,7 +8925,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -8897,7 +8945,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -8918,7 +8966,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -8945,7 +8993,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -8964,7 +9012,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -8981,7 +9029,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9002,7 +9050,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9027,7 +9075,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9049,7 +9097,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9070,7 +9118,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9091,7 +9139,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9118,7 +9166,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9139,7 +9187,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9166,7 +9214,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9185,7 +9233,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9204,7 +9252,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9225,7 +9273,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9246,7 +9294,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9264,7 +9312,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9290,7 +9338,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9311,7 +9359,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9332,7 +9380,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9357,7 +9405,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9382,7 +9430,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9401,7 +9449,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9420,7 +9468,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9441,7 +9489,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9468,7 +9516,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9489,7 +9537,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9516,7 +9564,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9535,7 +9583,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9562,7 +9610,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9584,7 +9632,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9605,7 +9653,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9632,7 +9680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9650,7 +9698,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9676,7 +9724,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9697,7 +9745,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9718,7 +9766,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9743,7 +9791,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9763,7 +9811,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9782,7 +9830,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9801,7 +9849,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9820,7 +9868,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9841,7 +9889,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -9862,7 +9910,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -9883,7 +9931,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -9910,7 +9958,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -9937,7 +9985,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -9964,7 +10012,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -9985,7 +10033,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10012,7 +10060,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10030,7 +10078,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10050,7 +10098,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10075,7 +10123,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10100,7 +10148,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10121,7 +10169,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10142,7 +10190,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10163,7 +10211,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10184,7 +10232,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10205,7 +10253,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10232,7 +10280,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10254,7 +10302,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10275,7 +10323,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10296,7 +10344,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10317,7 +10365,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10335,7 +10383,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10355,7 +10403,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10382,7 +10430,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10401,7 +10449,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10420,7 +10468,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10441,7 +10489,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10468,7 +10516,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10489,7 +10537,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10510,7 +10558,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10537,7 +10585,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10558,7 +10606,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10579,7 +10627,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10600,7 +10648,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10627,7 +10675,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10648,7 +10696,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10668,7 +10716,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10688,7 +10736,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10709,7 +10757,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" ref="A328:A336" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10732,11 +10780,11 @@
       </c>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
-      <c r="K328" s="50">
-        <v>44989</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11">
+      <c r="K328" s="64">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10754,11 +10802,11 @@
       </c>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="50">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11">
+      <c r="K329" s="64">
+        <v>44634</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10776,11 +10824,11 @@
       </c>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="50">
-        <v>45003</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11">
+      <c r="K330" s="64">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10805,7 +10853,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>49</v>
@@ -10820,11 +10868,11 @@
       </c>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
-      <c r="K332" s="50">
-        <v>45022</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11">
+      <c r="K332" s="64">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>65</v>
@@ -10841,7 +10889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f>EDATE(A331,1)</f>
         <v>44682</v>
@@ -10862,7 +10910,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="19"/>
         <v>44713</v>
@@ -10883,7 +10931,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="19"/>
         <v>44743</v>
@@ -10910,7 +10958,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>65</v>
@@ -10927,51 +10975,83 @@
         <v>219</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
-      <c r="A338" s="40"/>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="40">
+        <v>44774</v>
+      </c>
       <c r="B338" s="20"/>
-      <c r="C338" s="13"/>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D338" s="39"/>
       <c r="E338" s="9"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="13"/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H338" s="39"/>
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11">
-      <c r="A339" s="41"/>
-      <c r="B339" s="15"/>
-      <c r="C339" s="42"/>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="41">
+        <v>44805</v>
+      </c>
+      <c r="B339" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D339" s="43"/>
       <c r="E339" s="51"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="15"/>
-      <c r="H339" s="43"/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H339" s="43">
+        <v>2</v>
+      </c>
       <c r="I339" s="51"/>
       <c r="J339" s="12"/>
-      <c r="K339" s="15"/>
-    </row>
-    <row r="340" spans="1:11">
-      <c r="A340" s="40"/>
-      <c r="B340" s="20"/>
-      <c r="C340" s="13"/>
+      <c r="K339" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B340" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C340" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D340" s="39"/>
       <c r="E340" s="9"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H340" s="39"/>
+      <c r="G340" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H340" s="39">
+        <v>1</v>
+      </c>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
-      <c r="K340" s="20"/>
-    </row>
-    <row r="341" spans="1:11">
+      <c r="K340" s="64">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
-      <c r="B341" s="20"/>
+      <c r="B341" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C341" s="13"/>
       <c r="D341" s="39"/>
       <c r="E341" s="9"/>
@@ -10980,16 +11060,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H341" s="39"/>
+      <c r="H341" s="39">
+        <v>1</v>
+      </c>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
-      <c r="K341" s="20"/>
-    </row>
-    <row r="342" spans="1:11">
+      <c r="K341" s="64"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
-      <c r="B342" s="20"/>
+      <c r="B342" s="20" t="s">
+        <v>224</v>
+      </c>
       <c r="C342" s="13"/>
-      <c r="D342" s="39"/>
+      <c r="D342" s="39">
+        <v>5</v>
+      </c>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
       <c r="G342" s="13" t="str">
@@ -10999,43 +11085,67 @@
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
-      <c r="K342" s="20"/>
-    </row>
-    <row r="343" spans="1:11">
-      <c r="A343" s="40"/>
-      <c r="B343" s="20"/>
-      <c r="C343" s="13"/>
+      <c r="K342" s="65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B343" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C343" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D343" s="39"/>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H343" s="39"/>
+      <c r="G343" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H343" s="39">
+        <v>1</v>
+      </c>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
-      <c r="K343" s="20"/>
-    </row>
-    <row r="344" spans="1:11">
-      <c r="A344" s="40"/>
-      <c r="B344" s="20"/>
-      <c r="C344" s="13"/>
+      <c r="K343" s="64">
+        <v>44874</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B344" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D344" s="39"/>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H344" s="39"/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H344" s="39">
+        <v>2</v>
+      </c>
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
-      <c r="K344" s="20"/>
-    </row>
-    <row r="345" spans="1:11">
+      <c r="K344" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
-      <c r="B345" s="20"/>
+      <c r="B345" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
@@ -11044,26 +11154,348 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H345" s="39"/>
+      <c r="H345" s="39">
+        <v>1</v>
+      </c>
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
-      <c r="K345" s="20"/>
-    </row>
-    <row r="346" spans="1:11">
-      <c r="A346" s="41"/>
-      <c r="B346" s="15"/>
-      <c r="C346" s="42"/>
-      <c r="D346" s="43"/>
-      <c r="E346" s="51"/>
-      <c r="F346" s="15"/>
-      <c r="G346" s="42" t="str">
+      <c r="K345" s="64">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="40"/>
+      <c r="B346" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C346" s="13"/>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H346" s="43"/>
-      <c r="I346" s="51"/>
-      <c r="J346" s="12"/>
-      <c r="K346" s="15"/>
+      <c r="H346" s="39">
+        <v>2</v>
+      </c>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="64" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B348" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H348" s="39">
+        <v>2</v>
+      </c>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B349" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D349" s="39"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H349" s="39">
+        <v>2</v>
+      </c>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B350" s="15"/>
+      <c r="C350" s="42"/>
+      <c r="D350" s="43"/>
+      <c r="E350" s="51"/>
+      <c r="F350" s="15"/>
+      <c r="G350" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H350" s="43"/>
+      <c r="I350" s="51"/>
+      <c r="J350" s="12"/>
+      <c r="K350" s="15"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="40"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H351" s="39"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="40"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H352" s="39"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" s="40"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H353" s="39"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" s="40"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H354" s="39"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" s="40"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="40"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="40"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="40"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="40"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="40"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="40"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="40"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="39"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="40"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="41"/>
+      <c r="B364" s="15"/>
+      <c r="C364" s="42"/>
+      <c r="D364" s="43"/>
+      <c r="E364" s="51"/>
+      <c r="F364" s="15"/>
+      <c r="G364" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="43"/>
+      <c r="I364" s="51"/>
+      <c r="J364" s="12"/>
+      <c r="K364" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11106,7 +11538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11114,21 +11546,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -11141,7 +11573,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11170,7 +11602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11196,17 +11628,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11227,7 +11659,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11254,7 +11686,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11280,7 +11712,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11306,7 +11738,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11332,7 +11764,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11358,7 +11790,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11384,7 +11816,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11410,7 +11842,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11436,7 +11868,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11456,7 +11888,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11476,7 +11908,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11496,7 +11928,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11517,7 +11949,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11538,7 +11970,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11559,7 +11991,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11580,7 +12012,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11601,7 +12033,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11622,7 +12054,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11643,7 +12075,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11664,7 +12096,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11685,7 +12117,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11706,7 +12138,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11727,7 +12159,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11748,7 +12180,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11769,7 +12201,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11790,7 +12222,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11811,7 +12243,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11832,7 +12264,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11853,7 +12285,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11874,7 +12306,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11895,7 +12327,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11916,7 +12348,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11925,7 +12357,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11934,7 +12366,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11943,7 +12375,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11952,7 +12384,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11961,7 +12393,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11970,7 +12402,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11979,7 +12411,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11988,7 +12420,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11997,7 +12429,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12006,7 +12438,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12015,7 +12447,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12024,7 +12456,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12033,7 +12465,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12042,7 +12474,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12051,7 +12483,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12060,7 +12492,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12069,7 +12501,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12078,7 +12510,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12087,7 +12519,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12096,7 +12528,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12105,7 +12537,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12114,7 +12546,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12123,7 +12555,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12132,7 +12564,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12141,7 +12573,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12150,7 +12582,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12159,7 +12591,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12168,7 +12600,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12177,7 +12609,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="232">
   <si>
     <t>PERIOD</t>
   </si>
@@ -732,6 +732,12 @@
   </si>
   <si>
     <t>2/7,8/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>9/30, 10/3/2023</t>
   </si>
 </sst>
 </file>
@@ -1126,6 +1132,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,12 +1173,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,7 +1622,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1665,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1729,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1789,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1855,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1918,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2016,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2075,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2140,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2183,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2258,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2444,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2510,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2568,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2634,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2690,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2765,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2808,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2874,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2924,7 +2930,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3022,7 +3028,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,7 +3091,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3151,7 +3157,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K364" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3529,12 +3535,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K364"/>
+  <dimension ref="A2:K365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1575" topLeftCell="A328" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B350" sqref="B350"/>
+      <selection pane="bottomLeft" activeCell="E343" sqref="E343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,58 +3562,58 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="58"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3633,18 +3639,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3691,7 +3697,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>127.16099999999994</v>
+        <v>125.16099999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -10780,7 +10786,7 @@
       </c>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
-      <c r="K328" s="64">
+      <c r="K328" s="52">
         <v>44624</v>
       </c>
     </row>
@@ -10802,7 +10808,7 @@
       </c>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
-      <c r="K329" s="64">
+      <c r="K329" s="52">
         <v>44634</v>
       </c>
     </row>
@@ -10824,7 +10830,7 @@
       </c>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
-      <c r="K330" s="64">
+      <c r="K330" s="52">
         <v>44638</v>
       </c>
     </row>
@@ -10868,7 +10874,7 @@
       </c>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
-      <c r="K332" s="64">
+      <c r="K332" s="52">
         <v>44657</v>
       </c>
     </row>
@@ -11043,7 +11049,7 @@
       </c>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
-      <c r="K340" s="64">
+      <c r="K340" s="52">
         <v>44846</v>
       </c>
     </row>
@@ -11065,16 +11071,16 @@
       </c>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
-      <c r="K341" s="64"/>
+      <c r="K341" s="52"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C342" s="13"/>
       <c r="D342" s="39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
@@ -11085,42 +11091,38 @@
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
-      <c r="K342" s="65" t="s">
-        <v>225</v>
+      <c r="K342" s="52" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C343" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D343" s="39"/>
+        <v>224</v>
+      </c>
+      <c r="C343" s="13"/>
+      <c r="D343" s="39">
+        <v>5</v>
+      </c>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H343" s="39">
-        <v>1</v>
-      </c>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="39"/>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
-      <c r="K343" s="64">
-        <v>44874</v>
+      <c r="K343" s="53" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C344" s="13">
         <v>1.25</v>
@@ -11133,40 +11135,44 @@
         <v>1.25</v>
       </c>
       <c r="H344" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
-      <c r="K344" s="20" t="s">
-        <v>226</v>
+      <c r="K344" s="52">
+        <v>44874</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="40"/>
+      <c r="A345" s="40">
+        <v>44896</v>
+      </c>
       <c r="B345" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C345" s="13"/>
+        <v>221</v>
+      </c>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H345" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
-      <c r="K345" s="64">
-        <v>44915</v>
+      <c r="K345" s="20" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="39"/>
@@ -11177,19 +11183,19 @@
         <v/>
       </c>
       <c r="H346" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
-      <c r="K346" s="64" t="s">
-        <v>227</v>
+      <c r="K346" s="52">
+        <v>44915</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="B347" s="20"/>
+      <c r="A347" s="40"/>
+      <c r="B347" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="C347" s="13"/>
       <c r="D347" s="39"/>
       <c r="E347" s="9"/>
@@ -11198,40 +11204,36 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H347" s="39"/>
+      <c r="H347" s="39">
+        <v>2</v>
+      </c>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
-      <c r="K347" s="20"/>
+      <c r="K347" s="52" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B348" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C348" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A348" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13"/>
       <c r="D348" s="39"/>
       <c r="E348" s="9"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H348" s="39">
-        <v>2</v>
-      </c>
+      <c r="G348" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H348" s="39"/>
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
-      <c r="K348" s="20" t="s">
-        <v>228</v>
-      </c>
+      <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B349" s="20" t="s">
         <v>221</v>
@@ -11252,42 +11254,52 @@
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B350" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H350" s="39">
+        <v>2</v>
+      </c>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="20" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A350" s="41">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" s="41">
         <v>44986</v>
       </c>
-      <c r="B350" s="15"/>
-      <c r="C350" s="42"/>
-      <c r="D350" s="43"/>
-      <c r="E350" s="51"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="42" t="str">
+      <c r="B351" s="15"/>
+      <c r="C351" s="42"/>
+      <c r="D351" s="43"/>
+      <c r="E351" s="51"/>
+      <c r="F351" s="15"/>
+      <c r="G351" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H350" s="43"/>
-      <c r="I350" s="51"/>
-      <c r="J350" s="12"/>
-      <c r="K350" s="15"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="40"/>
-      <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
-      <c r="D351" s="39"/>
-      <c r="E351" s="9"/>
-      <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H351" s="39"/>
-      <c r="I351" s="9"/>
-      <c r="J351" s="11"/>
-      <c r="K351" s="20"/>
+      <c r="H351" s="43"/>
+      <c r="I351" s="51"/>
+      <c r="J351" s="12"/>
+      <c r="K351" s="15"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
@@ -11482,20 +11494,36 @@
       <c r="K363" s="20"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="41"/>
-      <c r="B364" s="15"/>
-      <c r="C364" s="42"/>
-      <c r="D364" s="43"/>
-      <c r="E364" s="51"/>
-      <c r="F364" s="15"/>
-      <c r="G364" s="42" t="str">
+      <c r="A364" s="40"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H364" s="43"/>
-      <c r="I364" s="51"/>
-      <c r="J364" s="12"/>
-      <c r="K364" s="15"/>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="41"/>
+      <c r="B365" s="15"/>
+      <c r="C365" s="42"/>
+      <c r="D365" s="43"/>
+      <c r="E365" s="51"/>
+      <c r="F365" s="15"/>
+      <c r="G365" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="43"/>
+      <c r="I365" s="51"/>
+      <c r="J365" s="12"/>
+      <c r="K365" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11561,17 +11589,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -11652,12 +11680,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF69129-864E-4E15-B8F8-09D6C8C43194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="233">
   <si>
     <t>PERIOD</t>
   </si>
@@ -738,12 +731,15 @@
   </si>
   <si>
     <t>9/30, 10/3/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -981,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,6 +1169,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,7 +1621,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1664,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1728,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1788,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1854,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1917,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2015,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2074,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2139,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2182,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2257,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2443,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2509,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2567,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2633,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,7 +2689,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2764,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2807,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2873,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2929,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3027,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3090,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,25 +3156,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3187,13 +3186,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3202,14 +3201,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3513,7 +3512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3523,7 +3522,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3531,34 +3530,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1575" topLeftCell="A328" activePane="bottomLeft"/>
+      <pane ySplit="1572" topLeftCell="A346" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E343" sqref="E343"/>
+      <selection pane="bottomLeft" activeCell="B352" sqref="B352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3579,7 +3578,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3597,7 +3596,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3614,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3623,7 +3622,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3636,7 +3635,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3653,7 +3652,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3697,7 +3696,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.16099999999994</v>
+        <v>126.41099999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3707,12 +3706,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41</v>
+        <v>42.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3734,7 +3733,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3754,7 +3753,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3774,7 +3773,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3795,7 +3794,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3816,7 +3815,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3837,7 +3836,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3858,7 +3857,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3879,7 +3878,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3900,7 +3899,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3921,7 +3920,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -3942,7 +3941,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -3969,7 +3968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -3987,7 +3986,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -4007,7 +4006,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -4032,7 +4031,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4059,7 +4058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4080,7 +4079,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4101,7 +4100,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4122,7 +4121,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4149,7 +4148,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4174,7 +4173,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4203,7 +4202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4223,7 +4222,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4250,7 +4249,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4272,7 +4271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4299,7 +4298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4326,7 +4325,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4344,7 +4343,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4391,7 +4390,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4418,7 +4417,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4445,7 +4444,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4465,7 +4464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4487,7 +4486,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4514,7 +4513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4541,7 +4540,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4562,7 +4561,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4583,7 +4582,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4610,7 +4609,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4632,7 +4631,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4659,7 +4658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4680,7 +4679,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4701,7 +4700,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4719,7 +4718,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4739,7 +4738,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4760,7 +4759,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4787,7 +4786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4814,7 +4813,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4835,7 +4834,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4862,7 +4861,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4883,7 +4882,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4910,7 +4909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -4930,7 +4929,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -4955,7 +4954,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -4980,7 +4979,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -5005,7 +5004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5024,7 +5023,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -5041,7 +5040,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5066,7 +5065,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5084,7 +5083,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5131,7 +5130,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5156,7 +5155,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5185,7 +5184,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5204,7 +5203,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5221,7 +5220,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5246,7 +5245,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5266,7 +5265,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5293,7 +5292,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5314,7 +5313,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5341,7 +5340,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5368,7 +5367,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5387,7 +5386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5414,7 +5413,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5435,7 +5434,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5456,7 +5455,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5483,7 +5482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5505,7 +5504,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5523,7 +5522,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5543,7 +5542,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5568,7 +5567,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5589,7 +5588,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5610,7 +5609,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5631,7 +5630,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5652,7 +5651,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5673,7 +5672,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5694,7 +5693,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5715,7 +5714,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5736,7 +5735,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5757,7 +5756,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5782,7 +5781,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5802,7 +5801,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5820,7 +5819,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5840,7 +5839,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5861,7 +5860,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5882,7 +5881,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5903,7 +5902,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5924,7 +5923,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -5945,7 +5944,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -5966,7 +5965,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -5987,7 +5986,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -6008,7 +6007,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -6029,7 +6028,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6056,7 +6055,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6074,7 +6073,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6095,7 +6094,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6113,7 +6112,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6133,7 +6132,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6154,7 +6153,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6175,7 +6174,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6200,7 +6199,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6220,7 +6219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6247,7 +6246,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6262,7 +6261,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6277,7 +6276,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6292,7 +6291,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6317,7 +6316,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6337,7 +6336,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6362,7 +6361,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6389,7 +6388,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6409,7 +6408,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6434,7 +6433,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6455,7 +6454,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6480,7 +6479,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6505,7 +6504,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6523,7 +6522,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6567,7 +6566,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6588,7 +6587,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6609,7 +6608,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6636,7 +6635,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6656,7 +6655,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6681,7 +6680,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6706,7 +6705,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6731,7 +6730,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6756,7 +6755,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6783,7 +6782,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6803,7 +6802,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6830,7 +6829,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6850,7 +6849,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6875,7 +6874,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6902,7 +6901,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -6922,7 +6921,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -6940,7 +6939,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -6984,7 +6983,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -7009,7 +7008,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -7032,7 +7031,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -7047,7 +7046,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7062,7 +7061,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7079,7 +7078,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7102,7 +7101,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7122,7 +7121,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7147,7 +7146,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7164,7 +7163,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7181,7 +7180,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7206,7 +7205,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7233,7 +7232,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7253,7 +7252,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7278,7 +7277,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7301,7 +7300,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7321,7 +7320,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7348,7 +7347,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7368,7 +7367,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7389,7 +7388,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7414,7 +7413,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7434,7 +7433,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7452,7 +7451,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7476,7 +7475,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7493,7 +7492,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7518,7 +7517,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7543,7 +7542,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7562,7 +7561,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7587,7 +7586,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7604,7 +7603,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7621,7 +7620,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7646,7 +7645,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7671,7 +7670,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7696,7 +7695,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7721,7 +7720,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7748,7 +7747,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7767,7 +7766,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7786,7 +7785,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7805,7 +7804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7822,7 +7821,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7843,7 +7842,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7868,7 +7867,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7893,7 +7892,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7911,7 +7910,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -7931,7 +7930,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -7956,7 +7955,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -7976,7 +7975,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -8003,7 +8002,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -8018,7 +8017,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -8039,7 +8038,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8060,7 +8059,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8087,7 +8086,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8109,7 +8108,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8130,7 +8129,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8151,7 +8150,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8176,7 +8175,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8203,7 +8202,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8225,7 +8224,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8246,7 +8245,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8267,7 +8266,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8285,7 +8284,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8305,7 +8304,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8332,7 +8331,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8357,7 +8356,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8377,7 +8376,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8398,7 +8397,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8419,7 +8418,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8440,7 +8439,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8461,7 +8460,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8482,7 +8481,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8503,7 +8502,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8530,7 +8529,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8552,7 +8551,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8579,7 +8578,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8601,7 +8600,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8622,7 +8621,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8640,7 +8639,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8660,7 +8659,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8687,7 +8686,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8714,7 +8713,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8735,7 +8734,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8760,7 +8759,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8781,7 +8780,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8802,7 +8801,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8823,7 +8822,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8844,7 +8843,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8871,7 +8870,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8892,7 +8891,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8913,7 +8912,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -8931,7 +8930,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -8951,7 +8950,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -8972,7 +8971,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -8999,7 +8998,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9018,7 +9017,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -9035,7 +9034,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9056,7 +9055,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9081,7 +9080,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9103,7 +9102,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9124,7 +9123,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9145,7 +9144,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9172,7 +9171,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9193,7 +9192,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9220,7 +9219,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9239,7 +9238,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9258,7 +9257,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9279,7 +9278,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9300,7 +9299,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9318,7 +9317,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9365,7 +9364,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9386,7 +9385,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9411,7 +9410,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9436,7 +9435,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9455,7 +9454,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9474,7 +9473,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9495,7 +9494,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9522,7 +9521,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9543,7 +9542,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9570,7 +9569,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9589,7 +9588,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9616,7 +9615,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9638,7 +9637,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9659,7 +9658,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9686,7 +9685,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9704,7 +9703,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9751,7 +9750,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9772,7 +9771,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9797,7 +9796,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9817,7 +9816,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9836,7 +9835,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9855,7 +9854,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9874,7 +9873,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9895,7 +9894,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -9916,7 +9915,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -9937,7 +9936,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -9964,7 +9963,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -9991,7 +9990,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -10018,7 +10017,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -10039,7 +10038,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10066,7 +10065,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10084,7 +10083,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10104,7 +10103,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10129,7 +10128,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10154,7 +10153,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10175,7 +10174,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10196,7 +10195,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10217,7 +10216,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10238,7 +10237,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10259,7 +10258,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10286,7 +10285,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10308,7 +10307,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10329,7 +10328,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10350,7 +10349,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10371,7 +10370,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10389,7 +10388,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10409,7 +10408,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10436,7 +10435,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10455,7 +10454,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10474,7 +10473,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10495,7 +10494,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10522,7 +10521,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10543,7 +10542,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10564,7 +10563,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10591,7 +10590,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10612,7 +10611,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10633,7 +10632,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10654,7 +10653,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10681,7 +10680,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10702,7 +10701,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10722,7 +10721,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10742,7 +10741,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10763,7 +10762,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" ref="A328:A336" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10790,7 +10789,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10812,7 +10811,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10834,7 +10833,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10859,7 +10858,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>49</v>
@@ -10878,7 +10877,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>65</v>
@@ -10895,7 +10894,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f>EDATE(A331,1)</f>
         <v>44682</v>
@@ -10916,7 +10915,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="19"/>
         <v>44713</v>
@@ -10937,7 +10936,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="19"/>
         <v>44743</v>
@@ -10964,7 +10963,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>65</v>
@@ -10981,7 +10980,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>44774</v>
       </c>
@@ -11001,7 +11000,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="41">
         <v>44805</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>44835</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>223</v>
@@ -11073,7 +11072,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="52"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>230</v>
@@ -11095,7 +11094,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>224</v>
@@ -11117,7 +11116,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>44866</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>44896</v>
       </c>
@@ -11169,7 +11168,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>223</v>
@@ -11191,7 +11190,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>221</v>
@@ -11213,7 +11212,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="48" t="s">
         <v>220</v>
       </c>
@@ -11231,7 +11230,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>44927</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>44958</v>
       </c>
@@ -11283,26 +11282,34 @@
         <v>229</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="41">
         <v>44986</v>
       </c>
-      <c r="B351" s="15"/>
-      <c r="C351" s="42"/>
+      <c r="B351" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D351" s="43"/>
       <c r="E351" s="51"/>
       <c r="F351" s="15"/>
-      <c r="G351" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G351" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H351" s="43"/>
       <c r="I351" s="51"/>
       <c r="J351" s="12"/>
-      <c r="K351" s="15"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="40"/>
+      <c r="K351" s="66">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="40">
+        <v>45017</v>
+      </c>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
@@ -11317,8 +11324,10 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="40"/>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="40">
+        <v>45047</v>
+      </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
@@ -11333,8 +11342,10 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="40"/>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="40">
+        <v>45078</v>
+      </c>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
@@ -11349,8 +11360,10 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="40"/>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="40">
+        <v>45108</v>
+      </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
@@ -11365,8 +11378,10 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="40"/>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="40">
+        <v>45139</v>
+      </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
       <c r="D356" s="39"/>
@@ -11381,8 +11396,10 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="40"/>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="40">
+        <v>45170</v>
+      </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
@@ -11397,8 +11414,10 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="40"/>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="40">
+        <v>45200</v>
+      </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
@@ -11413,8 +11432,10 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="40"/>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="40">
+        <v>45231</v>
+      </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -11429,8 +11450,10 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="40"/>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="40">
+        <v>45261</v>
+      </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -11445,8 +11468,10 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="40"/>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="40">
+        <v>45292</v>
+      </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
@@ -11461,8 +11486,10 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="40"/>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="40">
+        <v>45323</v>
+      </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
@@ -11477,8 +11504,10 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="40"/>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40">
+        <v>45352</v>
+      </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
@@ -11493,7 +11522,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11509,7 +11538,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="41"/>
       <c r="B365" s="15"/>
       <c r="C365" s="42"/>
@@ -11540,10 +11569,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11566,7 +11595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11574,21 +11603,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -11601,7 +11630,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11630,7 +11659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11656,17 +11685,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11687,7 +11716,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11714,7 +11743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11740,7 +11769,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11766,7 +11795,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11792,7 +11821,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11818,7 +11847,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11844,7 +11873,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11870,7 +11899,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11896,7 +11925,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11916,7 +11945,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11936,7 +11965,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11956,7 +11985,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11977,7 +12006,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11998,7 +12027,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12019,7 +12048,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12040,7 +12069,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12061,7 +12090,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12082,7 +12111,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12103,7 +12132,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12124,7 +12153,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12145,7 +12174,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12166,7 +12195,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12187,7 +12216,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12208,7 +12237,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12229,7 +12258,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12250,7 +12279,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12271,7 +12300,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12292,7 +12321,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12313,7 +12342,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12334,7 +12363,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12355,7 +12384,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12376,7 +12405,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12385,7 +12414,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12394,7 +12423,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12403,7 +12432,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12412,7 +12441,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12421,7 +12450,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12430,7 +12459,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12439,7 +12468,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12448,7 +12477,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12457,7 +12486,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12466,7 +12495,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12475,7 +12504,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12484,7 +12513,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12493,7 +12522,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12502,7 +12531,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12511,7 +12540,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12520,7 +12549,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12529,7 +12558,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12538,7 +12567,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12547,7 +12576,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12556,7 +12585,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12565,7 +12594,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12574,7 +12603,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12583,7 +12612,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12592,7 +12621,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12601,7 +12630,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12610,7 +12639,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12619,7 +12648,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12628,7 +12657,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12637,7 +12666,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF69129-864E-4E15-B8F8-09D6C8C43194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="235">
   <si>
     <t>PERIOD</t>
   </si>
@@ -734,12 +733,18 @@
   </si>
   <si>
     <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>BIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1134,6 +1139,9 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1169,9 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1621,7 +1626,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1669,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1728,7 +1733,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1793,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1859,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1922,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2020,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2079,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2144,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2187,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2262,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2448,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2509,7 +2514,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2572,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2633,7 +2638,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2694,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2769,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2807,7 +2812,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2878,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2934,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3032,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3095,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3156,25 +3161,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3186,13 +3191,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3201,14 +3206,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3512,7 +3517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3522,7 +3527,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3530,91 +3535,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1572" topLeftCell="A346" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B352" sqref="B352"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A340" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B353" sqref="B353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="B4" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="61"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3622,7 +3631,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3635,24 +3644,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3706,12 +3715,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>42.25</v>
+        <v>41.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3733,7 +3742,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3753,7 +3762,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3773,7 +3782,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3794,7 +3803,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3815,7 +3824,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3836,7 +3845,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3857,7 +3866,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3878,7 +3887,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3899,7 +3908,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3920,7 +3929,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -3941,7 +3950,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -3968,7 +3977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -3986,7 +3995,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -4006,7 +4015,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -4031,7 +4040,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4058,7 +4067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4079,7 +4088,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4100,7 +4109,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4121,7 +4130,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4148,7 +4157,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4173,7 +4182,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4202,7 +4211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4222,7 +4231,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4249,7 +4258,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4271,7 +4280,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4298,7 +4307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4325,7 +4334,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4343,7 +4352,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4390,7 +4399,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4417,7 +4426,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4444,7 +4453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4464,7 +4473,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4486,7 +4495,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4513,7 +4522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4540,7 +4549,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4561,7 +4570,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4582,7 +4591,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4609,7 +4618,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4631,7 +4640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4658,7 +4667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4679,7 +4688,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4700,7 +4709,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4718,7 +4727,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4738,7 +4747,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4759,7 +4768,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4786,7 +4795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4813,7 +4822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4834,7 +4843,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4861,7 +4870,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4882,7 +4891,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4909,7 +4918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -4929,7 +4938,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -4954,7 +4963,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -4979,7 +4988,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -5004,7 +5013,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5023,7 +5032,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -5040,7 +5049,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5065,7 +5074,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5083,7 +5092,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5111,7 +5120,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5130,7 +5139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5155,7 +5164,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5184,7 +5193,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5203,7 +5212,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5220,7 +5229,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5245,7 +5254,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5265,7 +5274,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5292,7 +5301,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5313,7 +5322,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5340,7 +5349,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5367,7 +5376,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5386,7 +5395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5413,7 +5422,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5434,7 +5443,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5455,7 +5464,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5482,7 +5491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5504,7 +5513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5522,7 +5531,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5542,7 +5551,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5567,7 +5576,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5588,7 +5597,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5609,7 +5618,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5630,7 +5639,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5651,7 +5660,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5672,7 +5681,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5693,7 +5702,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5714,7 +5723,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5735,7 +5744,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5756,7 +5765,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5781,7 +5790,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5801,7 +5810,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5819,7 +5828,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5839,7 +5848,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5860,7 +5869,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5881,7 +5890,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5902,7 +5911,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5923,7 +5932,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -5944,7 +5953,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -5965,7 +5974,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -5986,7 +5995,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -6007,7 +6016,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -6028,7 +6037,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6055,7 +6064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6073,7 +6082,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6094,7 +6103,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6112,7 +6121,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6132,7 +6141,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6153,7 +6162,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6174,7 +6183,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6199,7 +6208,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6219,7 +6228,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6246,7 +6255,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6261,7 +6270,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6276,7 +6285,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6291,7 +6300,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6316,7 +6325,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6336,7 +6345,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6361,7 +6370,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6388,7 +6397,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6408,7 +6417,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6433,7 +6442,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6454,7 +6463,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6479,7 +6488,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6504,7 +6513,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6522,7 +6531,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6546,7 +6555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6566,7 +6575,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6587,7 +6596,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6608,7 +6617,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6635,7 +6644,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6655,7 +6664,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6680,7 +6689,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6705,7 +6714,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6730,7 +6739,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6755,7 +6764,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6782,7 +6791,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6802,7 +6811,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6829,7 +6838,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6849,7 +6858,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6874,7 +6883,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6901,7 +6910,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -6921,7 +6930,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -6939,7 +6948,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -6963,7 +6972,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -6983,7 +6992,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -7008,7 +7017,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -7031,7 +7040,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -7046,7 +7055,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7061,7 +7070,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7078,7 +7087,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7101,7 +7110,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7121,7 +7130,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7146,7 +7155,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7163,7 +7172,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7180,7 +7189,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7205,7 +7214,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7232,7 +7241,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7252,7 +7261,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7277,7 +7286,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7300,7 +7309,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7320,7 +7329,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7347,7 +7356,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7367,7 +7376,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7388,7 +7397,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7413,7 +7422,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7433,7 +7442,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7451,7 +7460,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7475,7 +7484,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7492,7 +7501,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7517,7 +7526,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7542,7 +7551,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7561,7 +7570,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7586,7 +7595,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7603,7 +7612,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7620,7 +7629,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7645,7 +7654,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7670,7 +7679,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7695,7 +7704,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7720,7 +7729,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7747,7 +7756,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7766,7 +7775,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7785,7 +7794,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7804,7 +7813,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7821,7 +7830,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7842,7 +7851,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7867,7 +7876,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7892,7 +7901,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7910,7 +7919,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -7930,7 +7939,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -7955,7 +7964,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -7975,7 +7984,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -8002,7 +8011,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -8017,7 +8026,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -8038,7 +8047,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8059,7 +8068,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8086,7 +8095,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8108,7 +8117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8129,7 +8138,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8150,7 +8159,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8175,7 +8184,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8202,7 +8211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8224,7 +8233,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8245,7 +8254,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8266,7 +8275,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8284,7 +8293,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8304,7 +8313,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8331,7 +8340,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8356,7 +8365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8376,7 +8385,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8397,7 +8406,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8418,7 +8427,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8439,7 +8448,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8460,7 +8469,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8481,7 +8490,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8502,7 +8511,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8529,7 +8538,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8551,7 +8560,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8578,7 +8587,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8600,7 +8609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8621,7 +8630,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8639,7 +8648,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8659,7 +8668,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8686,7 +8695,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8713,7 +8722,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8734,7 +8743,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8759,7 +8768,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8780,7 +8789,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8801,7 +8810,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8822,7 +8831,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8843,7 +8852,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8870,7 +8879,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8891,7 +8900,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8912,7 +8921,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -8930,7 +8939,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -8950,7 +8959,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -8971,7 +8980,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -8998,7 +9007,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9017,7 +9026,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -9034,7 +9043,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9055,7 +9064,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9080,7 +9089,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9102,7 +9111,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9123,7 +9132,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9144,7 +9153,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9171,7 +9180,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9192,7 +9201,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9219,7 +9228,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9238,7 +9247,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9257,7 +9266,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9278,7 +9287,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9299,7 +9308,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9317,7 +9326,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9343,7 +9352,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9364,7 +9373,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9385,7 +9394,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9410,7 +9419,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9435,7 +9444,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9454,7 +9463,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9473,7 +9482,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9494,7 +9503,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9521,7 +9530,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9542,7 +9551,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9569,7 +9578,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9588,7 +9597,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9615,7 +9624,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9637,7 +9646,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9658,7 +9667,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9685,7 +9694,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9703,7 +9712,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9729,7 +9738,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9750,7 +9759,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9771,7 +9780,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9796,7 +9805,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9816,7 +9825,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9835,7 +9844,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9854,7 +9863,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9873,7 +9882,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9894,7 +9903,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -9915,7 +9924,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -9936,7 +9945,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -9963,7 +9972,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -9990,7 +9999,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -10017,7 +10026,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -10038,7 +10047,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10065,7 +10074,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10083,7 +10092,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10103,7 +10112,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10128,7 +10137,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10153,7 +10162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10174,7 +10183,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10195,7 +10204,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10216,7 +10225,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10237,7 +10246,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10258,7 +10267,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10285,7 +10294,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10307,7 +10316,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10328,7 +10337,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10349,7 +10358,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10370,7 +10379,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10388,7 +10397,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10408,7 +10417,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10435,7 +10444,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10454,7 +10463,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10473,7 +10482,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10494,7 +10503,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10521,7 +10530,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10542,7 +10551,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10563,7 +10572,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10590,7 +10599,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10611,7 +10620,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10632,7 +10641,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10653,7 +10662,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10680,7 +10689,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10701,7 +10710,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10721,7 +10730,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10741,7 +10750,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10762,7 +10771,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" ref="A328:A336" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10789,7 +10798,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10811,7 +10820,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10833,7 +10842,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10858,7 +10867,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>49</v>
@@ -10877,7 +10886,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>65</v>
@@ -10894,7 +10903,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f>EDATE(A331,1)</f>
         <v>44682</v>
@@ -10915,7 +10924,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="19"/>
         <v>44713</v>
@@ -10936,7 +10945,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="19"/>
         <v>44743</v>
@@ -10963,7 +10972,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>65</v>
@@ -10980,7 +10989,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44774</v>
       </c>
@@ -11000,7 +11009,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="41">
         <v>44805</v>
       </c>
@@ -11026,7 +11035,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44835</v>
       </c>
@@ -11052,7 +11061,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>223</v>
@@ -11072,7 +11081,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="52"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>230</v>
@@ -11094,7 +11103,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>224</v>
@@ -11116,7 +11125,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44866</v>
       </c>
@@ -11142,7 +11151,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44896</v>
       </c>
@@ -11168,7 +11177,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>223</v>
@@ -11190,7 +11199,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>221</v>
@@ -11212,7 +11221,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="48" t="s">
         <v>220</v>
       </c>
@@ -11230,7 +11239,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44927</v>
       </c>
@@ -11256,7 +11265,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44958</v>
       </c>
@@ -11282,7 +11291,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="41">
         <v>44986</v>
       </c>
@@ -11302,15 +11311,17 @@
       <c r="H351" s="43"/>
       <c r="I351" s="51"/>
       <c r="J351" s="12"/>
-      <c r="K351" s="66">
+      <c r="K351" s="54">
         <v>45027</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>45017</v>
       </c>
-      <c r="B352" s="20"/>
+      <c r="B352" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
@@ -11319,12 +11330,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H352" s="39"/>
+      <c r="H352" s="39">
+        <v>1</v>
+      </c>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
-      <c r="K352" s="20"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K352" s="52">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>45047</v>
       </c>
@@ -11342,7 +11357,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>45078</v>
       </c>
@@ -11360,7 +11375,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>45108</v>
       </c>
@@ -11378,7 +11393,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>45139</v>
       </c>
@@ -11396,7 +11411,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>45170</v>
       </c>
@@ -11414,7 +11429,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>45200</v>
       </c>
@@ -11432,7 +11447,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>45231</v>
       </c>
@@ -11450,7 +11465,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>45261</v>
       </c>
@@ -11468,7 +11483,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>45292</v>
       </c>
@@ -11486,7 +11501,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>45323</v>
       </c>
@@ -11504,7 +11519,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>45352</v>
       </c>
@@ -11522,7 +11537,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11538,7 +11553,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="41"/>
       <c r="B365" s="15"/>
       <c r="C365" s="42"/>
@@ -11569,10 +11584,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11595,7 +11610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11603,34 +11618,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="64" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11659,7 +11674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11685,17 +11700,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11709,14 +11724,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11743,7 +11758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11769,7 +11784,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11795,7 +11810,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11821,7 +11836,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11847,7 +11862,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11873,7 +11888,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11899,7 +11914,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11925,7 +11940,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11945,7 +11960,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11965,7 +11980,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11985,7 +12000,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12006,7 +12021,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12027,7 +12042,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12048,7 +12063,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12069,7 +12084,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12090,7 +12105,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12111,7 +12126,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12132,7 +12147,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12153,7 +12168,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12174,7 +12189,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12195,7 +12210,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12216,7 +12231,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12237,7 +12252,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12258,7 +12273,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12279,7 +12294,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12300,7 +12315,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12321,7 +12336,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12342,7 +12357,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12363,7 +12378,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12384,7 +12399,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12405,7 +12420,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12414,7 +12429,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12423,7 +12438,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12432,7 +12447,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12441,7 +12456,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12450,7 +12465,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12459,7 +12474,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12468,7 +12483,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12477,7 +12492,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12486,7 +12501,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12495,7 +12510,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12504,7 +12519,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12513,7 +12528,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12522,7 +12537,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12531,7 +12546,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12540,7 +12555,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12549,7 +12564,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12558,7 +12573,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12567,7 +12582,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12576,7 +12591,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12585,7 +12600,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12594,7 +12609,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12603,7 +12618,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12612,7 +12627,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12621,7 +12636,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12630,7 +12645,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12639,7 +12654,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12648,7 +12663,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12657,7 +12672,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12666,7 +12681,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19656316-6E0F-44BC-8947-01D96F95BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="239">
   <si>
     <t>PERIOD</t>
   </si>
@@ -739,12 +740,24 @@
   </si>
   <si>
     <t>BIR</t>
+  </si>
+  <si>
+    <t>ANNIV 5/26/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>5/31 - 6/2/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1626,7 +1639,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1682,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1746,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1806,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1859,7 +1872,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1935,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2033,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2092,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2157,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2200,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2275,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2461,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2527,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2585,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2651,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2707,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2769,7 +2782,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2825,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2891,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2947,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3045,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3108,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3144,7 +3157,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3161,25 +3174,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K365" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K366" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3191,13 +3204,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3206,14 +3219,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3517,7 +3530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3527,7 +3540,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3535,34 +3548,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K365"/>
+  <dimension ref="A2:K366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A340" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B353" sqref="B353"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A346" activePane="bottomLeft"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="K356" sqref="K356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3574,7 +3587,9 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63"/>
+      <c r="F2" s="63" t="s">
+        <v>237</v>
+      </c>
       <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
@@ -3583,11 +3598,13 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="56" t="s">
+        <v>236</v>
+      </c>
       <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3601,7 +3618,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3623,7 +3640,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3631,7 +3648,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3644,7 +3661,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3661,7 +3678,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3696,7 +3713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3705,7 +3722,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>126.41099999999994</v>
+        <v>128.91099999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3715,12 +3732,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.25</v>
+        <v>40.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3742,7 +3759,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3762,7 +3779,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3782,7 +3799,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3803,7 +3820,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3824,7 +3841,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3845,7 +3862,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3866,7 +3883,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3887,7 +3904,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3908,7 +3925,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3929,7 +3946,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -3950,7 +3967,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -3977,7 +3994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -3995,7 +4012,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -4015,7 +4032,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -4040,7 +4057,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4067,7 +4084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4088,7 +4105,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4109,7 +4126,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4130,7 +4147,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4157,7 +4174,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4182,7 +4199,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4211,7 +4228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4231,7 +4248,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4258,7 +4275,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4280,7 +4297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4307,7 +4324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4334,7 +4351,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4352,7 +4369,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4378,7 +4395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4399,7 +4416,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4426,7 +4443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4453,7 +4470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4473,7 +4490,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4495,7 +4512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4522,7 +4539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4549,7 +4566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4570,7 +4587,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4591,7 +4608,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4618,7 +4635,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4640,7 +4657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4667,7 +4684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4688,7 +4705,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4709,7 +4726,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4727,7 +4744,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4747,7 +4764,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4768,7 +4785,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4795,7 +4812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4822,7 +4839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4843,7 +4860,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4870,7 +4887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4891,7 +4908,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4918,7 +4935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -4938,7 +4955,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -4963,7 +4980,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -4988,7 +5005,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -5013,7 +5030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5032,7 +5049,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -5049,7 +5066,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5074,7 +5091,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5092,7 +5109,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5120,7 +5137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5139,7 +5156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5164,7 +5181,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5193,7 +5210,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5212,7 +5229,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5229,7 +5246,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5254,7 +5271,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5274,7 +5291,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5301,7 +5318,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5322,7 +5339,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5349,7 +5366,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5376,7 +5393,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5395,7 +5412,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5422,7 +5439,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5443,7 +5460,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5464,7 +5481,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5491,7 +5508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5513,7 +5530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5531,7 +5548,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5551,7 +5568,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5576,7 +5593,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5597,7 +5614,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5618,7 +5635,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5639,7 +5656,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5660,7 +5677,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5681,7 +5698,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5702,7 +5719,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5723,7 +5740,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5744,7 +5761,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5765,7 +5782,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5790,7 +5807,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5810,7 +5827,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5828,7 +5845,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5848,7 +5865,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5869,7 +5886,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5890,7 +5907,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5911,7 +5928,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5932,7 +5949,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -5953,7 +5970,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -5974,7 +5991,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -5995,7 +6012,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -6016,7 +6033,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -6037,7 +6054,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6064,7 +6081,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6082,7 +6099,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6103,7 +6120,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6121,7 +6138,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6141,7 +6158,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6162,7 +6179,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6183,7 +6200,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6208,7 +6225,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6228,7 +6245,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6255,7 +6272,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6270,7 +6287,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6285,7 +6302,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6300,7 +6317,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6325,7 +6342,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6345,7 +6362,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6370,7 +6387,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6397,7 +6414,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6417,7 +6434,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6442,7 +6459,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6463,7 +6480,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6488,7 +6505,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6513,7 +6530,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6531,7 +6548,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6555,7 +6572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6575,7 +6592,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6596,7 +6613,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6617,7 +6634,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6644,7 +6661,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6664,7 +6681,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6689,7 +6706,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6714,7 +6731,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6739,7 +6756,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6764,7 +6781,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6791,7 +6808,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6811,7 +6828,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6838,7 +6855,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6858,7 +6875,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6883,7 +6900,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6910,7 +6927,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -6930,7 +6947,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -6948,7 +6965,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -6972,7 +6989,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -6992,7 +7009,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -7017,7 +7034,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -7040,7 +7057,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -7055,7 +7072,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7070,7 +7087,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7087,7 +7104,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7110,7 +7127,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7130,7 +7147,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7155,7 +7172,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7172,7 +7189,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7189,7 +7206,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7214,7 +7231,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7241,7 +7258,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7261,7 +7278,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7286,7 +7303,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7309,7 +7326,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7329,7 +7346,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7356,7 +7373,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7376,7 +7393,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7397,7 +7414,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7422,7 +7439,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7442,7 +7459,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7460,7 +7477,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7484,7 +7501,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7501,7 +7518,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7526,7 +7543,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7551,7 +7568,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7570,7 +7587,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7595,7 +7612,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7612,7 +7629,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7629,7 +7646,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7654,7 +7671,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7679,7 +7696,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7704,7 +7721,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7729,7 +7746,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7756,7 +7773,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7775,7 +7792,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7794,7 +7811,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7813,7 +7830,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7830,7 +7847,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7851,7 +7868,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7876,7 +7893,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7901,7 +7918,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7919,7 +7936,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -7939,7 +7956,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -7964,7 +7981,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -7984,7 +8001,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -8011,7 +8028,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -8026,7 +8043,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -8047,7 +8064,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8068,7 +8085,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8095,7 +8112,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8117,7 +8134,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8138,7 +8155,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8159,7 +8176,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8184,7 +8201,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8211,7 +8228,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8233,7 +8250,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8254,7 +8271,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8275,7 +8292,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8293,7 +8310,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8313,7 +8330,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8340,7 +8357,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8365,7 +8382,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8385,7 +8402,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8406,7 +8423,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8427,7 +8444,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8448,7 +8465,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8469,7 +8486,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8490,7 +8507,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8511,7 +8528,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8538,7 +8555,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8560,7 +8577,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8587,7 +8604,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8609,7 +8626,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8630,7 +8647,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8648,7 +8665,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8668,7 +8685,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8695,7 +8712,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8722,7 +8739,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8743,7 +8760,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8768,7 +8785,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8789,7 +8806,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8810,7 +8827,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8831,7 +8848,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8852,7 +8869,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8879,7 +8896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8900,7 +8917,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8921,7 +8938,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -8939,7 +8956,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -8959,7 +8976,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -8980,7 +8997,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -9007,7 +9024,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9026,7 +9043,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -9043,7 +9060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9064,7 +9081,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9089,7 +9106,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9111,7 +9128,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9132,7 +9149,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9153,7 +9170,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9180,7 +9197,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9201,7 +9218,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9228,7 +9245,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9247,7 +9264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9266,7 +9283,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9287,7 +9304,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9308,7 +9325,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9326,7 +9343,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9352,7 +9369,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9373,7 +9390,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9394,7 +9411,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9419,7 +9436,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9444,7 +9461,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9463,7 +9480,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9482,7 +9499,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9503,7 +9520,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9530,7 +9547,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9551,7 +9568,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9578,7 +9595,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9597,7 +9614,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9624,7 +9641,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9646,7 +9663,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9667,7 +9684,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9694,7 +9711,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9712,7 +9729,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9738,7 +9755,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9759,7 +9776,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9780,7 +9797,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9805,7 +9822,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9825,7 +9842,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9844,7 +9861,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9863,7 +9880,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9882,7 +9899,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9903,7 +9920,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -9924,7 +9941,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -9945,7 +9962,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -9972,7 +9989,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -9999,7 +10016,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -10026,7 +10043,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -10047,7 +10064,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10074,7 +10091,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10092,7 +10109,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10112,7 +10129,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10137,7 +10154,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10162,7 +10179,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10183,7 +10200,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10204,7 +10221,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10225,7 +10242,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10246,7 +10263,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10267,7 +10284,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10294,7 +10311,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10316,7 +10333,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10337,7 +10354,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10358,7 +10375,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10379,7 +10396,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10397,7 +10414,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10417,7 +10434,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10444,7 +10461,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10463,7 +10480,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10482,7 +10499,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10503,7 +10520,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10530,7 +10547,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10551,7 +10568,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10572,7 +10589,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10599,7 +10616,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10620,7 +10637,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10641,7 +10658,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10662,7 +10679,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10689,7 +10706,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10710,7 +10727,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10730,7 +10747,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10750,7 +10767,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10771,7 +10788,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" ref="A328:A336" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10798,7 +10815,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10820,7 +10837,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10842,7 +10859,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10867,7 +10884,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>49</v>
@@ -10886,7 +10903,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>65</v>
@@ -10903,7 +10920,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f>EDATE(A331,1)</f>
         <v>44682</v>
@@ -10924,7 +10941,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="19"/>
         <v>44713</v>
@@ -10945,7 +10962,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="19"/>
         <v>44743</v>
@@ -10972,7 +10989,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>65</v>
@@ -10989,7 +11006,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>44774</v>
       </c>
@@ -11009,7 +11026,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="41">
         <v>44805</v>
       </c>
@@ -11035,7 +11052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>44835</v>
       </c>
@@ -11061,7 +11078,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>223</v>
@@ -11081,7 +11098,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="52"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>230</v>
@@ -11103,7 +11120,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>224</v>
@@ -11125,7 +11142,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>44866</v>
       </c>
@@ -11151,7 +11168,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>44896</v>
       </c>
@@ -11177,7 +11194,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>223</v>
@@ -11199,7 +11216,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>221</v>
@@ -11221,7 +11238,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="48" t="s">
         <v>220</v>
       </c>
@@ -11239,7 +11256,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>44927</v>
       </c>
@@ -11265,7 +11282,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>44958</v>
       </c>
@@ -11291,7 +11308,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="41">
         <v>44986</v>
       </c>
@@ -11315,20 +11332,22 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <v>45017</v>
       </c>
       <c r="B352" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C352" s="13"/>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H352" s="39">
         <v>1</v>
@@ -11339,29 +11358,35 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>45047</v>
       </c>
-      <c r="B353" s="20"/>
-      <c r="C353" s="13"/>
+      <c r="B353" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D353" s="39"/>
       <c r="E353" s="9"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H353" s="39"/>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
-      <c r="K353" s="20"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B354" s="20"/>
+      <c r="K353" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="40"/>
+      <c r="B354" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
       <c r="E354" s="9"/>
@@ -11370,16 +11395,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H354" s="39"/>
+      <c r="H354" s="39">
+        <v>1</v>
+      </c>
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
-      <c r="K354" s="20"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K354" s="52">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B355" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B355" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
@@ -11388,14 +11419,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H355" s="39"/>
+      <c r="H355" s="39">
+        <v>2</v>
+      </c>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="20"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K355" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -11411,9 +11446,9 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -11429,9 +11464,9 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -11447,9 +11482,9 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -11465,9 +11500,9 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -11483,9 +11518,9 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -11501,9 +11536,9 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -11519,9 +11554,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -11537,8 +11572,10 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="40"/>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="40">
+        <v>45352</v>
+      </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
@@ -11553,21 +11590,37 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="41"/>
-      <c r="B365" s="15"/>
-      <c r="C365" s="42"/>
-      <c r="D365" s="43"/>
-      <c r="E365" s="51"/>
-      <c r="F365" s="15"/>
-      <c r="G365" s="42" t="str">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="40"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="39"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H365" s="43"/>
-      <c r="I365" s="51"/>
-      <c r="J365" s="12"/>
-      <c r="K365" s="15"/>
+      <c r="H365" s="39"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="41"/>
+      <c r="B366" s="15"/>
+      <c r="C366" s="42"/>
+      <c r="D366" s="43"/>
+      <c r="E366" s="51"/>
+      <c r="F366" s="15"/>
+      <c r="G366" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="43"/>
+      <c r="I366" s="51"/>
+      <c r="J366" s="12"/>
+      <c r="K366" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11584,10 +11637,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11610,7 +11663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11618,21 +11671,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -11645,7 +11698,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11674,7 +11727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11700,17 +11753,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11731,7 +11784,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11758,7 +11811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11784,7 +11837,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11810,7 +11863,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11836,7 +11889,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11862,7 +11915,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11888,7 +11941,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11914,7 +11967,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11940,7 +11993,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11960,7 +12013,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11980,7 +12033,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12000,7 +12053,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12021,7 +12074,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12042,7 +12095,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12063,7 +12116,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12084,7 +12137,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12105,7 +12158,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12126,7 +12179,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12147,7 +12200,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12168,7 +12221,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12189,7 +12242,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12210,7 +12263,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12231,7 +12284,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12252,7 +12305,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12273,7 +12326,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12294,7 +12347,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12315,7 +12368,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12336,7 +12389,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12357,7 +12410,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12378,7 +12431,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12399,7 +12452,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12420,7 +12473,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12429,7 +12482,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12438,7 +12491,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12447,7 +12500,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12456,7 +12509,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12465,7 +12518,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12474,7 +12527,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12483,7 +12536,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12492,7 +12545,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12501,7 +12554,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12510,7 +12563,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12519,7 +12572,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12528,7 +12581,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12537,7 +12590,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12546,7 +12599,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12555,7 +12608,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12564,7 +12617,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12573,7 +12626,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12582,7 +12635,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12591,7 +12644,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12600,7 +12653,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12609,7 +12662,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12618,7 +12671,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12627,7 +12680,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12636,7 +12689,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12645,7 +12698,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12654,7 +12707,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12663,7 +12716,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12672,7 +12725,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12681,7 +12734,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/MONTENEGRO, HELEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19656316-6E0F-44BC-8947-01D96F95BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="240">
   <si>
     <t>PERIOD</t>
   </si>
@@ -752,12 +751,15 @@
   </si>
   <si>
     <t>5/31 - 6/2/2023</t>
+  </si>
+  <si>
+    <t>6/8-9/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1639,7 +1641,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1684,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1748,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1808,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1874,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1937,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2035,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2094,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2159,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2202,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2277,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2461,7 +2463,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +2529,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2587,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2653,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2709,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2782,7 +2784,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2827,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2891,7 +2893,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +2949,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3045,7 +3047,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3108,7 +3110,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3157,7 +3159,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3174,25 +3176,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K366" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K367" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3204,13 +3206,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3219,14 +3221,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3530,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3540,7 +3542,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3548,34 +3550,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K366"/>
+  <dimension ref="A2:K367"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A346" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A346" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
       <selection pane="bottomLeft" activeCell="K356" sqref="K356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3598,7 +3600,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3618,7 +3620,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3640,7 +3642,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3648,7 +3650,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3661,7 +3663,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -3678,7 +3680,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3732,12 +3734,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.75</v>
+        <v>38.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3759,7 +3761,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37655</v>
       </c>
@@ -3779,7 +3781,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37681</v>
       </c>
@@ -3799,7 +3801,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>37712</v>
@@ -3820,7 +3822,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A21" si="0">EDATE(A13,1)</f>
         <v>37742</v>
@@ -3841,7 +3843,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>37773</v>
@@ -3862,7 +3864,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -3883,7 +3885,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -3904,7 +3906,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -3925,7 +3927,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -3946,7 +3948,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>37926</v>
@@ -3967,7 +3969,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>37956</v>
@@ -3994,7 +3996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>46</v>
       </c>
@@ -4012,7 +4014,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>37987</v>
       </c>
@@ -4032,7 +4034,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f>EDATE(A23,1)</f>
         <v>38018</v>
@@ -4057,7 +4059,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" ref="A25:A36" si="1">EDATE(A24,1)</f>
         <v>38047</v>
@@ -4084,7 +4086,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>38078</v>
@@ -4105,7 +4107,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -4126,7 +4128,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>38139</v>
@@ -4147,7 +4149,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -4174,7 +4176,7 @@
         <v>11140</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="1"/>
         <v>38200</v>
@@ -4199,7 +4201,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>38231</v>
@@ -4228,7 +4230,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -4248,7 +4250,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>38261</v>
@@ -4275,7 +4277,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -4297,7 +4299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A33,1)</f>
         <v>38292</v>
@@ -4324,7 +4326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -4351,7 +4353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>58</v>
       </c>
@@ -4369,7 +4371,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38353</v>
       </c>
@@ -4395,7 +4397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f>EDATE(A38,1)</f>
         <v>38384</v>
@@ -4416,7 +4418,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" ref="A40:A51" si="2">EDATE(A39,1)</f>
         <v>38412</v>
@@ -4443,7 +4445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>38443</v>
@@ -4470,7 +4472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>65</v>
@@ -4490,7 +4492,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>66</v>
@@ -4512,7 +4514,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>38473</v>
@@ -4539,7 +4541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>38504</v>
@@ -4566,7 +4568,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>38534</v>
@@ -4587,7 +4589,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38565</v>
@@ -4608,7 +4610,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38596</v>
@@ -4635,7 +4637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>61</v>
@@ -4657,7 +4659,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>38626</v>
@@ -4684,7 +4686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38657</v>
@@ -4705,7 +4707,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A51,1)</f>
         <v>38687</v>
@@ -4726,7 +4728,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>74</v>
       </c>
@@ -4744,7 +4746,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>38718</v>
       </c>
@@ -4764,7 +4766,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A54,1)</f>
         <v>38749</v>
@@ -4785,7 +4787,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>38777</v>
@@ -4812,7 +4814,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" ref="A57:A65" si="3">EDATE(A56,1)</f>
         <v>38808</v>
@@ -4839,7 +4841,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>38838</v>
@@ -4860,7 +4862,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>38869</v>
@@ -4887,7 +4889,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>38899</v>
@@ -4908,7 +4910,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>38930</v>
@@ -4935,7 +4937,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>80</v>
@@ -4955,7 +4957,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>38961</v>
@@ -4980,7 +4982,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>38991</v>
@@ -5005,7 +5007,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39022</v>
@@ -5030,7 +5032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>49</v>
@@ -5049,7 +5051,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>83</v>
@@ -5066,7 +5068,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A65,1)</f>
         <v>39052</v>
@@ -5091,7 +5093,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>86</v>
       </c>
@@ -5109,7 +5111,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39083</v>
       </c>
@@ -5137,7 +5139,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>89</v>
@@ -5156,7 +5158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>39114</v>
@@ -5181,7 +5183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A86" si="4">EDATE(A72,1)</f>
         <v>39142</v>
@@ -5210,7 +5212,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5229,7 +5231,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>96</v>
@@ -5246,7 +5248,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>39173</v>
@@ -5271,7 +5273,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>97</v>
@@ -5291,7 +5293,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A76,1)</f>
         <v>39203</v>
@@ -5318,7 +5320,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39234</v>
@@ -5339,7 +5341,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39264</v>
@@ -5366,7 +5368,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39295</v>
@@ -5393,7 +5395,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>61</v>
@@ -5412,7 +5414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39326</v>
@@ -5439,7 +5441,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>39356</v>
@@ -5460,7 +5462,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>39387</v>
@@ -5481,7 +5483,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>39417</v>
@@ -5508,7 +5510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>99</v>
@@ -5530,7 +5532,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>102</v>
       </c>
@@ -5548,7 +5550,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39448</v>
       </c>
@@ -5568,7 +5570,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A89,1)</f>
         <v>39479</v>
@@ -5593,7 +5595,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A100" si="5">EDATE(A90,1)</f>
         <v>39508</v>
@@ -5614,7 +5616,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39539</v>
@@ -5635,7 +5637,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39569</v>
@@ -5656,7 +5658,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>39600</v>
@@ -5677,7 +5679,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>39630</v>
@@ -5698,7 +5700,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>39661</v>
@@ -5719,7 +5721,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>39692</v>
@@ -5740,7 +5742,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>39722</v>
@@ -5761,7 +5763,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>39753</v>
@@ -5782,7 +5784,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>39783</v>
@@ -5807,7 +5809,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>76</v>
@@ -5827,7 +5829,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>105</v>
       </c>
@@ -5845,7 +5847,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39814</v>
       </c>
@@ -5865,7 +5867,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f>EDATE(A103,1)</f>
         <v>39845</v>
@@ -5886,7 +5888,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" ref="A105:A113" si="6">EDATE(A104,1)</f>
         <v>39873</v>
@@ -5907,7 +5909,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>39904</v>
@@ -5928,7 +5930,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>39934</v>
@@ -5949,7 +5951,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>39965</v>
@@ -5970,7 +5972,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>39995</v>
@@ -5991,7 +5993,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>40026</v>
@@ -6012,7 +6014,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>40057</v>
@@ -6033,7 +6035,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>40087</v>
@@ -6054,7 +6056,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>40118</v>
@@ -6081,7 +6083,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>99</v>
@@ -6099,7 +6101,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40148</v>
@@ -6120,7 +6122,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>107</v>
       </c>
@@ -6138,7 +6140,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40179</v>
       </c>
@@ -6158,7 +6160,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A117,1)</f>
         <v>40210</v>
@@ -6179,7 +6181,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" ref="A119:A133" si="7">EDATE(A118,1)</f>
         <v>40238</v>
@@ -6200,7 +6202,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>40269</v>
@@ -6225,7 +6227,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>65</v>
@@ -6245,7 +6247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>40299</v>
@@ -6272,7 +6274,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>110</v>
@@ -6287,7 +6289,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>111</v>
@@ -6302,7 +6304,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>112</v>
@@ -6317,7 +6319,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A122,1)</f>
         <v>40330</v>
@@ -6342,7 +6344,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>114</v>
@@ -6362,7 +6364,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f>EDATE(A126,1)</f>
         <v>40360</v>
@@ -6387,7 +6389,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40391</v>
@@ -6414,7 +6416,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>116</v>
@@ -6434,7 +6436,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f>EDATE(A129,1)</f>
         <v>40422</v>
@@ -6459,7 +6461,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>40452</v>
@@ -6480,7 +6482,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40483</v>
@@ -6505,7 +6507,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A133,1)</f>
         <v>40513</v>
@@ -6530,7 +6532,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>120</v>
       </c>
@@ -6548,7 +6550,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>40544</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -6592,7 +6594,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A136,1)</f>
         <v>40575</v>
@@ -6613,7 +6615,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A146" si="8">EDATE(A138,1)</f>
         <v>40603</v>
@@ -6634,7 +6636,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -6661,7 +6663,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>131</v>
@@ -6681,7 +6683,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>40664</v>
@@ -6706,7 +6708,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>40695</v>
@@ -6731,7 +6733,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>40725</v>
@@ -6756,7 +6758,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -6781,7 +6783,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -6808,7 +6810,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>135</v>
@@ -6828,7 +6830,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>40817</v>
@@ -6855,7 +6857,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>138</v>
@@ -6875,7 +6877,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A148,1)</f>
         <v>40848</v>
@@ -6900,7 +6902,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A150,1)</f>
         <v>40878</v>
@@ -6927,7 +6929,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>140</v>
@@ -6947,7 +6949,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>121</v>
       </c>
@@ -6965,7 +6967,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40909</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="15" t="s">
         <v>142</v>
@@ -7009,7 +7011,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41">
         <f>EDATE(A154,1)</f>
         <v>40940</v>
@@ -7034,7 +7036,7 @@
       <c r="J156" s="12"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41">
         <f t="shared" ref="A157:A170" si="9">EDATE(A156,1)</f>
         <v>40969</v>
@@ -7057,7 +7059,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41"/>
       <c r="B158" s="20" t="s">
         <v>65</v>
@@ -7072,7 +7074,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="20" t="s">
         <v>65</v>
@@ -7087,7 +7089,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41"/>
       <c r="B160" s="20" t="s">
         <v>144</v>
@@ -7104,7 +7106,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41">
         <f>EDATE(A157,1)</f>
         <v>41000</v>
@@ -7127,7 +7129,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41"/>
       <c r="B162" s="20" t="s">
         <v>145</v>
@@ -7147,7 +7149,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <f>EDATE(A161,1)</f>
         <v>41030</v>
@@ -7172,7 +7174,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>49</v>
@@ -7189,7 +7191,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>146</v>
@@ -7206,7 +7208,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41">
         <f>EDATE(A163,1)</f>
         <v>41061</v>
@@ -7231,7 +7233,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <f t="shared" si="9"/>
         <v>41091</v>
@@ -7258,7 +7260,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>147</v>
@@ -7278,7 +7280,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <f>EDATE(A167,1)</f>
         <v>41122</v>
@@ -7303,7 +7305,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <f t="shared" si="9"/>
         <v>41153</v>
@@ -7326,7 +7328,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="20" t="s">
         <v>149</v>
@@ -7346,7 +7348,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
         <f>EDATE(A170,1)</f>
         <v>41183</v>
@@ -7373,7 +7375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41"/>
       <c r="B173" s="20" t="s">
         <v>152</v>
@@ -7393,7 +7395,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
         <f>EDATE(A172,1)</f>
         <v>41214</v>
@@ -7414,7 +7416,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <f>EDATE(A174,1)</f>
         <v>41244</v>
@@ -7439,7 +7441,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
       <c r="B176" s="20" t="s">
         <v>153</v>
@@ -7459,7 +7461,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>122</v>
       </c>
@@ -7477,7 +7479,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41275</v>
       </c>
@@ -7501,7 +7503,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>154</v>
@@ -7518,7 +7520,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>41306</v>
@@ -7543,7 +7545,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" ref="A181:A197" si="10">EDATE(A180,1)</f>
         <v>41334</v>
@@ -7568,7 +7570,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>49</v>
@@ -7587,7 +7589,7 @@
         <v>41699</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A181,1)</f>
         <v>41365</v>
@@ -7612,7 +7614,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>150</v>
@@ -7629,7 +7631,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>156</v>
@@ -7646,7 +7648,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A183,1)</f>
         <v>41395</v>
@@ -7671,7 +7673,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41426</v>
@@ -7696,7 +7698,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="10"/>
         <v>41456</v>
@@ -7721,7 +7723,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -7746,7 +7748,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -7773,7 +7775,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>49</v>
@@ -7792,7 +7794,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>49</v>
@@ -7811,7 +7813,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>164</v>
@@ -7830,7 +7832,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>165</v>
@@ -7847,7 +7849,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A190,1)</f>
         <v>41548</v>
@@ -7868,7 +7870,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f>EDATE(A195,1)</f>
         <v>41579</v>
@@ -7893,7 +7895,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -7918,7 +7920,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="48" t="s">
         <v>123</v>
       </c>
@@ -7936,7 +7938,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <v>41640</v>
       </c>
@@ -7956,7 +7958,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>41671</v>
@@ -7981,7 +7983,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>65</v>
@@ -8001,7 +8003,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>41699</v>
@@ -8028,7 +8030,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>65</v>
@@ -8043,7 +8045,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A202,1)</f>
         <v>41730</v>
@@ -8064,7 +8066,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A211" si="11">EDATE(A204,1)</f>
         <v>41760</v>
@@ -8085,7 +8087,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="11"/>
         <v>41791</v>
@@ -8112,7 +8114,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>66</v>
@@ -8134,7 +8136,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A206,1)</f>
         <v>41821</v>
@@ -8155,7 +8157,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="11"/>
         <v>41852</v>
@@ -8176,7 +8178,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="11"/>
         <v>41883</v>
@@ -8201,7 +8203,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="11"/>
         <v>41913</v>
@@ -8228,7 +8230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>49</v>
@@ -8250,7 +8252,7 @@
         <v>47027</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A211,1)</f>
         <v>41944</v>
@@ -8271,7 +8273,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A213,1)</f>
         <v>41974</v>
@@ -8292,7 +8294,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="48" t="s">
         <v>124</v>
       </c>
@@ -8310,7 +8312,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42005</v>
       </c>
@@ -8330,7 +8332,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42036</v>
@@ -8357,7 +8359,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A226" si="12">EDATE(A217,1)</f>
         <v>42064</v>
@@ -8382,7 +8384,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>65</v>
@@ -8402,7 +8404,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>42095</v>
@@ -8423,7 +8425,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="12"/>
         <v>42125</v>
@@ -8444,7 +8446,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="12"/>
         <v>42156</v>
@@ -8465,7 +8467,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="12"/>
         <v>42186</v>
@@ -8486,7 +8488,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="12"/>
         <v>42217</v>
@@ -8507,7 +8509,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="12"/>
         <v>42248</v>
@@ -8528,7 +8530,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="12"/>
         <v>42278</v>
@@ -8555,7 +8557,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>99</v>
@@ -8577,7 +8579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>42309</v>
@@ -8604,7 +8606,7 @@
         <v>43405</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>76</v>
@@ -8626,7 +8628,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>42339</v>
@@ -8647,7 +8649,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="48" t="s">
         <v>125</v>
       </c>
@@ -8665,7 +8667,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8685,7 +8687,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A232,1)</f>
         <v>42401</v>
@@ -8712,7 +8714,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f t="shared" ref="A234:A242" si="13">EDATE(A233,1)</f>
         <v>42430</v>
@@ -8739,7 +8741,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" si="13"/>
         <v>42461</v>
@@ -8760,7 +8762,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" si="13"/>
         <v>42491</v>
@@ -8785,7 +8787,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="13"/>
         <v>42522</v>
@@ -8806,7 +8808,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -8827,7 +8829,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="13"/>
         <v>42583</v>
@@ -8848,7 +8850,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="13"/>
         <v>42614</v>
@@ -8869,7 +8871,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="13"/>
         <v>42644</v>
@@ -8896,7 +8898,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="13"/>
         <v>42675</v>
@@ -8917,7 +8919,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A242,1)</f>
         <v>42705</v>
@@ -8938,7 +8940,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="48" t="s">
         <v>126</v>
       </c>
@@ -8956,7 +8958,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42736</v>
       </c>
@@ -8976,7 +8978,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A245,1)</f>
         <v>42767</v>
@@ -8997,7 +8999,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" ref="A247:A261" si="14">EDATE(A246,1)</f>
         <v>42795</v>
@@ -9024,7 +9026,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>49</v>
@@ -9043,7 +9045,7 @@
         <v>11383</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>65</v>
@@ -9060,7 +9062,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>42826</v>
@@ -9081,7 +9083,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="14"/>
         <v>42856</v>
@@ -9106,7 +9108,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9128,7 +9130,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f>EDATE(A251,1)</f>
         <v>42887</v>
@@ -9149,7 +9151,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="14"/>
         <v>42917</v>
@@ -9170,7 +9172,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="14"/>
         <v>42948</v>
@@ -9197,7 +9199,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="14"/>
         <v>42979</v>
@@ -9218,7 +9220,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="14"/>
         <v>43009</v>
@@ -9245,7 +9247,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>76</v>
@@ -9264,7 +9266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>49</v>
@@ -9283,7 +9285,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>43040</v>
@@ -9304,7 +9306,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="14"/>
         <v>43070</v>
@@ -9325,7 +9327,7 @@
       <c r="J261" s="12"/>
       <c r="K261" s="15"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
         <v>127</v>
       </c>
@@ -9343,7 +9345,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>43101</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>43132</v>
@@ -9390,7 +9392,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A278" si="15">EDATE(A264,1)</f>
         <v>43160</v>
@@ -9411,7 +9413,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43191</v>
@@ -9436,7 +9438,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43221</v>
@@ -9461,7 +9463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>99</v>
@@ -9480,7 +9482,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>49</v>
@@ -9499,7 +9501,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A267,1)</f>
         <v>43252</v>
@@ -9520,7 +9522,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="15"/>
         <v>43282</v>
@@ -9547,7 +9549,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="15"/>
         <v>43313</v>
@@ -9568,7 +9570,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="15"/>
         <v>43344</v>
@@ -9595,7 +9597,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>49</v>
@@ -9614,7 +9616,7 @@
         <v>46266</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43374</v>
@@ -9641,7 +9643,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>99</v>
@@ -9663,7 +9665,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>43405</v>
@@ -9684,7 +9686,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="15"/>
         <v>43435</v>
@@ -9711,7 +9713,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
         <v>195</v>
       </c>
@@ -9729,7 +9731,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43466</v>
       </c>
@@ -9755,7 +9757,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>43497</v>
@@ -9776,7 +9778,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A294" si="16">EDATE(A281,1)</f>
         <v>43525</v>
@@ -9797,7 +9799,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>43556</v>
@@ -9822,7 +9824,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>65</v>
@@ -9842,7 +9844,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -9861,7 +9863,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -9880,7 +9882,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>49</v>
@@ -9899,7 +9901,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A283,1)</f>
         <v>43586</v>
@@ -9920,7 +9922,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="16"/>
         <v>43617</v>
@@ -9941,7 +9943,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="16"/>
         <v>43647</v>
@@ -9962,7 +9964,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="16"/>
         <v>43678</v>
@@ -9989,7 +9991,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="16"/>
         <v>43709</v>
@@ -10016,7 +10018,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="16"/>
         <v>43739</v>
@@ -10043,7 +10045,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="16"/>
         <v>43770</v>
@@ -10064,7 +10066,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>43800</v>
@@ -10091,7 +10093,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
         <v>201</v>
       </c>
@@ -10109,7 +10111,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -10129,7 +10131,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A297,1)</f>
         <v>43862</v>
@@ -10154,7 +10156,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" ref="A299:A309" si="17">EDATE(A298,1)</f>
         <v>43891</v>
@@ -10179,7 +10181,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>43922</v>
@@ -10200,7 +10202,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="17"/>
         <v>43952</v>
@@ -10221,7 +10223,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="17"/>
         <v>43983</v>
@@ -10242,7 +10244,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="17"/>
         <v>44013</v>
@@ -10263,7 +10265,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="17"/>
         <v>44044</v>
@@ -10284,7 +10286,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="17"/>
         <v>44075</v>
@@ -10311,7 +10313,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>206</v>
@@ -10333,7 +10335,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>44105</v>
@@ -10354,7 +10356,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="17"/>
         <v>44136</v>
@@ -10375,7 +10377,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="17"/>
         <v>44166</v>
@@ -10396,7 +10398,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="48" t="s">
         <v>208</v>
       </c>
@@ -10414,7 +10416,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>44197</v>
       </c>
@@ -10434,7 +10436,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A311,1)</f>
         <v>44228</v>
@@ -10461,7 +10463,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>210</v>
@@ -10480,7 +10482,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>209</v>
@@ -10499,7 +10501,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>44256</v>
@@ -10520,7 +10522,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A324" si="18">EDATE(A315,1)</f>
         <v>44287</v>
@@ -10547,7 +10549,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="18"/>
         <v>44317</v>
@@ -10568,7 +10570,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="18"/>
         <v>44348</v>
@@ -10589,7 +10591,7 @@
       <c r="J318" s="12"/>
       <c r="K318" s="15"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="18"/>
         <v>44378</v>
@@ -10616,7 +10618,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="18"/>
         <v>44409</v>
@@ -10637,7 +10639,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="18"/>
         <v>44440</v>
@@ -10658,7 +10660,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" si="18"/>
         <v>44470</v>
@@ -10679,7 +10681,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="18"/>
         <v>44501</v>
@@ -10706,7 +10708,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f t="shared" si="18"/>
         <v>44531</v>
@@ -10727,7 +10729,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="48" t="s">
         <v>217</v>
       </c>
@@ -10747,7 +10749,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>44562</v>
       </c>
@@ -10767,7 +10769,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>44593</v>
@@ -10788,7 +10790,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" ref="A328:A336" si="19">EDATE(A327,1)</f>
         <v>44621</v>
@@ -10815,7 +10817,7 @@
         <v>44624</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>49</v>
@@ -10837,7 +10839,7 @@
         <v>44634</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10859,7 +10861,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A328,1)</f>
         <v>44652</v>
@@ -10884,7 +10886,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>49</v>
@@ -10903,7 +10905,7 @@
         <v>44657</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>65</v>
@@ -10920,7 +10922,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f>EDATE(A331,1)</f>
         <v>44682</v>
@@ -10941,7 +10943,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="19"/>
         <v>44713</v>
@@ -10962,7 +10964,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="19"/>
         <v>44743</v>
@@ -10989,7 +10991,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>65</v>
@@ -11006,7 +11008,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44774</v>
       </c>
@@ -11026,7 +11028,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="41">
         <v>44805</v>
       </c>
@@ -11052,7 +11054,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44835</v>
       </c>
@@ -11078,7 +11080,7 @@
         <v>44846</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>223</v>
@@ -11098,7 +11100,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="52"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>230</v>
@@ -11120,7 +11122,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>224</v>
@@ -11142,7 +11144,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44866</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44896</v>
       </c>
@@ -11194,7 +11196,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>223</v>
@@ -11216,7 +11218,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>221</v>
@@ -11238,7 +11240,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="48" t="s">
         <v>220</v>
       </c>
@@ -11256,7 +11258,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44927</v>
       </c>
@@ -11282,7 +11284,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44958</v>
       </c>
@@ -11308,7 +11310,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="41">
         <v>44986</v>
       </c>
@@ -11332,7 +11334,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>45017</v>
       </c>
@@ -11358,7 +11360,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>45047</v>
       </c>
@@ -11382,7 +11384,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>223</v>
@@ -11404,7 +11406,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>45078</v>
       </c>
@@ -11428,11 +11430,11 @@
         <v>238</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A356" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B356" s="20"/>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="40"/>
+      <c r="B356" s="20" t="s">
+        <v>221</v>
+      </c>
       <c r="C356" s="13"/>
       <c r="D356" s="39"/>
       <c r="E356" s="9"/>
@@ -11441,14 +11443,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H356" s="39"/>
+      <c r="H356" s="39">
+        <v>2</v>
+      </c>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
-      <c r="K356" s="20"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K356" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -11464,9 +11470,9 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -11482,9 +11488,9 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -11500,9 +11506,9 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -11518,9 +11524,9 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -11536,9 +11542,9 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -11554,9 +11560,9 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -11572,9 +11578,9 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11590,8 +11596,10 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="40"/>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="40">
+        <v>45352</v>
+      </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
       <c r="D365" s="39"/>
@@ -11606,21 +11614,37 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A366" s="41"/>
-      <c r="B366" s="15"/>
-      <c r="C366" s="42"/>
-      <c r="D366" s="43"/>
-      <c r="E366" s="51"/>
-      <c r="F366" s="15"/>
-      <c r="G366" s="42" t="str">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="40"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H366" s="43"/>
-      <c r="I366" s="51"/>
-      <c r="J366" s="12"/>
-      <c r="K366" s="15"/>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="41"/>
+      <c r="B367" s="15"/>
+      <c r="C367" s="42"/>
+      <c r="D367" s="43"/>
+      <c r="E367" s="51"/>
+      <c r="F367" s="15"/>
+      <c r="G367" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="43"/>
+      <c r="I367" s="51"/>
+      <c r="J367" s="12"/>
+      <c r="K367" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11637,10 +11661,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11663,7 +11687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11671,21 +11695,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -11698,7 +11722,7 @@
       <c r="K1" s="66"/>
       <c r="L1" s="66"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11727,7 +11751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11753,17 +11777,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11784,7 +11808,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11811,7 +11835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11837,7 +11861,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11863,7 +11887,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11889,7 +11913,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11915,7 +11939,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11941,7 +11965,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11967,7 +11991,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11993,7 +12017,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12013,7 +12037,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12033,7 +12057,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12053,7 +12077,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12074,7 +12098,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12095,7 +12119,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12116,7 +12140,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12137,7 +12161,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12158,7 +12182,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12179,7 +12203,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12200,7 +12224,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12221,7 +12245,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12242,7 +12266,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12263,7 +12287,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12284,7 +12308,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12305,7 +12329,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12326,7 +12350,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12347,7 +12371,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12368,7 +12392,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12389,7 +12413,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12410,7 +12434,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12431,7 +12455,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12452,7 +12476,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12473,7 +12497,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12482,7 +12506,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12491,7 +12515,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12500,7 +12524,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12509,7 +12533,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12518,7 +12542,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12527,7 +12551,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12536,7 +12560,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12545,7 +12569,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12554,7 +12578,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12563,7 +12587,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12572,7 +12596,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12581,7 +12605,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12590,7 +12614,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12599,7 +12623,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12608,7 +12632,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12617,7 +12641,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12626,7 +12650,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12635,7 +12659,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12644,7 +12668,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12653,7 +12677,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12662,7 +12686,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12671,7 +12695,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12680,7 +12704,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12689,7 +12713,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12698,7 +12722,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12707,7 +12731,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12716,7 +12740,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12725,7 +12749,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12734,7 +12758,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
